--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,19 +4,55 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
     <sheet name="mixedTypes" sheetId="2" r:id="rId2"/>
     <sheet name="ragged" sheetId="3" r:id="rId3"/>
+    <sheet name="deletedFields" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>e49248</author>
+  </authors>
+  <commentList>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>e49248:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+increased to 20 cents per Navroz on 6/12
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
     <t>Population</t>
   </si>
@@ -268,16 +304,68 @@
   </si>
   <si>
     <t>C5</t>
+  </si>
+  <si>
+    <t>FirstCell</t>
+  </si>
+  <si>
+    <t>Last Updated E1</t>
+  </si>
+  <si>
+    <t>Last Updated E2</t>
+  </si>
+  <si>
+    <t>Last Updated E3</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>($)</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,16 +373,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -302,18 +464,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2390,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2447,4 +2664,1169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="6" customWidth="1"/>
+    <col min="2" max="10" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="7" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="14">
+        <v>40179</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" ref="B13:B24" si="0">$C13</f>
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="17">
+        <f>$C13+0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" ref="E13:E36" si="1">$C13</f>
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="15">
+        <f>$C13+0.15</f>
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="15">
+        <f>$C13+0.2</f>
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" ref="H13:J28" si="2">$C13</f>
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="14">
+        <v>40210</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" ref="D14:D36" si="3">$C14+0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:F36" si="4">$C14+0.15</f>
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" ref="G14:G36" si="5">$C14+0.2</f>
+        <v>0.45</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="14">
+        <v>40238</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="14">
+        <v>40269</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14">
+        <v>40299</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14">
+        <v>40330</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14">
+        <v>40360</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="14">
+        <v>40391</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="14">
+        <v>40422</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="14">
+        <v>40452</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="14">
+        <v>40483</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="19">
+        <v>40513</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="14">
+        <v>40544</v>
+      </c>
+      <c r="B25" s="15">
+        <f>$C25</f>
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H25" s="15">
+        <f>$C25+0</f>
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14">
+        <v>40575</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" ref="B26:B36" si="6">$C26</f>
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" ref="H26:H36" si="7">$C26+0</f>
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="14">
+        <v>40603</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="14">
+        <v>40634</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="14">
+        <v>40664</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" ref="I29:J36" si="8">$C29</f>
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="14">
+        <v>40695</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14">
+        <v>40725</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14">
+        <v>40756</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="14">
+        <v>40787</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="14">
+        <v>40817</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="14">
+        <v>40848</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="19">
+        <v>40878</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
     <sheet name="mixedTypes" sheetId="2" r:id="rId2"/>
     <sheet name="ragged" sheetId="3" r:id="rId3"/>
     <sheet name="deletedFields" sheetId="4" r:id="rId4"/>
+    <sheet name="oneColumn" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
   <si>
     <t>Population</t>
   </si>
@@ -355,6 +356,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>oneColumn</t>
   </si>
 </sst>
 </file>
@@ -506,9 +510,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,6 +527,9 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2670,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2736,17 +2740,17 @@
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2755,31 +2759,31 @@
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>97</v>
       </c>
       <c r="K9"/>
@@ -2792,45 +2796,45 @@
       <c r="A10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8"/>
@@ -2863,961 +2867,961 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>40179</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <f t="shared" ref="B13:B24" si="0">$C13</f>
         <v>0.25</v>
       </c>
-      <c r="C13" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="16">
         <f>$C13+0.25</f>
         <v>0.5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" ref="E13:E36" si="1">$C13</f>
         <v>0.25</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f>$C13+0.15</f>
         <v>0.4</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>$C13+0.2</f>
         <v>0.45</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" ref="H13:J28" si="2">$C13</f>
         <v>0.25</v>
       </c>
-      <c r="I13" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>40210</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C14" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="16">
         <f t="shared" ref="D14:D36" si="3">$C14+0.25</f>
         <v>0.5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" ref="F14:F36" si="4">$C14+0.15</f>
         <v>0.4</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f t="shared" ref="G14:G36" si="5">$C14+0.2</f>
         <v>0.45</v>
       </c>
-      <c r="H14" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J14" s="18">
+      <c r="H14" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>40238</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C15" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="C15" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H15" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="H15" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>40269</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C16" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="C16" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H16" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="H16" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>40299</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C17" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H17" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J17" s="18">
+      <c r="H17" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>40330</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C18" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="C18" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H18" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="H18" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>40360</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C19" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="C19" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H19" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="H19" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>40391</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C20" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="C20" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H20" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J20" s="18">
+      <c r="H20" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>40422</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C21" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="C21" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H21" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J21" s="18">
+      <c r="H21" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>40452</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C22" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="C22" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="18">
+      <c r="H22" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>40483</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C23" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C23" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H23" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="H23" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>40513</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C24" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="C24" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H24" s="15">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I24" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="18">
+      <c r="H24" s="14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>40544</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <f>$C25</f>
         <v>0.25</v>
       </c>
-      <c r="C25" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="C25" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f>$C25+0</f>
         <v>0.25</v>
       </c>
-      <c r="I25" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J25" s="18">
+      <c r="I25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>40575</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f t="shared" ref="B26:B36" si="6">$C26</f>
         <v>0.25</v>
       </c>
-      <c r="C26" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="C26" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <f t="shared" ref="H26:H36" si="7">$C26+0</f>
         <v>0.25</v>
       </c>
-      <c r="I26" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J26" s="18">
+      <c r="I26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J26" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>40603</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C27" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="C27" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I27" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="18">
+      <c r="I27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>40634</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C28" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="C28" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I28" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J28" s="18">
+      <c r="I28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J28" s="17">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>40664</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C29" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="C29" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="16">
         <f t="shared" ref="I29:J36" si="8">$C29</f>
         <v>0.25</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>40695</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C30" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>40725</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C31" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="C31" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>40756</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C32" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="C32" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>40787</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C33" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="C33" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>40817</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C34" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="C34" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>40848</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C35" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="C35" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>40878</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C36" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="C36" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="17">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
@@ -3829,4 +3833,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="ragged" sheetId="3" r:id="rId3"/>
     <sheet name="deletedFields" sheetId="4" r:id="rId4"/>
     <sheet name="oneColumn" sheetId="5" r:id="rId5"/>
+    <sheet name="ben" sheetId="6" r:id="rId6"/>
+    <sheet name="formulas" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>Population</t>
   </si>
@@ -359,6 +361,15 @@
   </si>
   <si>
     <t>oneColumn</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -369,7 +380,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +450,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -491,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -528,6 +545,9 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2740,17 +2760,17 @@
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3839,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3883,4 +3903,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2 &amp; "-" &amp; B2</f>
+        <v>2010-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">A3 &amp; "-" &amp; B3</f>
+        <v>2010-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="ben" sheetId="6" r:id="rId6"/>
     <sheet name="formulas" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="Price1" comment="Test a named range -- 1">deletedFields!$A$13:$C$24</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -2341,7 +2344,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2694,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2744,6 +2747,10 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
+      <c r="L5" s="7">
+        <f>SUM(Price1)</f>
+        <v>484152</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1">
       <c r="A6" s="6"/>
@@ -3948,7 +3955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>

--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="oneColumn" sheetId="5" r:id="rId5"/>
     <sheet name="ben" sheetId="6" r:id="rId6"/>
     <sheet name="formulas" sheetId="7" r:id="rId7"/>
+    <sheet name="NAs" sheetId="8" r:id="rId8"/>
+    <sheet name="all" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Price1" comment="Test a named range -- 1">deletedFields!$A$13:$C$24</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>Population</t>
   </si>
@@ -373,17 +375,72 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>rnorm</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +516,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -480,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -506,12 +578,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,6 +636,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2344,7 +2429,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2697,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3956,7 +4041,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4011,4 +4096,623 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1.123</v>
+      </c>
+      <c r="F2" s="3">
+        <v>39814.042372685188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.123</v>
+      </c>
+      <c r="F3" s="4">
+        <v>39845.084745370368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>39873</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>10^1.5</f>
+        <v>31.622776601683803</v>
+      </c>
+      <c r="F4" s="3">
+        <v>39873.127117939817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F5" s="4">
+        <v>39904.169490567132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>LOG(2)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39934.211863194447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>10^210+1.12</f>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="F7" s="4">
+        <v>39965.254235821762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="3">
+        <v>39995.296608449076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f>-1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="4">
+        <v>40026.338981076391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>E2+1</f>
+        <v>-0.123</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E10+1</f>
+        <v>0.877</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40087.423726331021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40118.466098958335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="e">
+        <f>E12+1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="4">
+        <v>40148.50847158565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="C3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3121.5468319920351</v>
+      </c>
+      <c r="J4" s="24">
+        <v>40853</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5">
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I5">
+        <v>-1624.4125246305759</v>
+      </c>
+      <c r="J5" s="24">
+        <v>40853.041666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6">
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="I6">
+        <v>-3037.6986982328153</v>
+      </c>
+      <c r="J6" s="24">
+        <v>40853.083333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="23">
+        <v>4</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="I7">
+        <v>4421.4613537295108</v>
+      </c>
+      <c r="J7" s="24">
+        <v>40853.125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="23">
+        <v>5</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="I8">
+        <v>5907.2342279766544</v>
+      </c>
+      <c r="J8" s="24">
+        <v>40853.166666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23">
+        <v>6</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37987</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="I9">
+        <v>14338.644991521463</v>
+      </c>
+      <c r="J9" s="24">
+        <v>40853.208333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="23">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2006</v>
+      </c>
+      <c r="F10" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10">
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="I10">
+        <v>12782.030353787637</v>
+      </c>
+      <c r="J10" s="24">
+        <v>40853.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="23">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2007</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38718</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11">
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="I11">
+        <v>-11000.620182831051</v>
+      </c>
+      <c r="J11" s="24">
+        <v>40853.291666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="23">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39083</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12">
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="I12">
+        <v>-10842.879724285254</v>
+      </c>
+      <c r="J12" s="24">
+        <v>40853.333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="23">
+        <v>10</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2009</v>
+      </c>
+      <c r="F13" s="1">
+        <v>39448</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="I13">
+        <v>16340.029557637967</v>
+      </c>
+      <c r="J13" s="24">
+        <v>40853.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,13 @@
     <sheet name="formulas" sheetId="7" r:id="rId7"/>
     <sheet name="NAs" sheetId="8" r:id="rId8"/>
     <sheet name="all" sheetId="9" r:id="rId9"/>
+    <sheet name="issue9" sheetId="10" r:id="rId10"/>
+    <sheet name="issue10" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Price1" comment="Test a named range -- 1">deletedFields!$A$13:$C$24</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="123">
   <si>
     <t>Population</t>
   </si>
@@ -434,13 +436,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,16 +522,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -592,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -633,13 +638,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -647,6 +658,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -725,6 +741,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -759,6 +776,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -934,16 +952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1016,7 @@
         <v>50708</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>566432</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1074,7 @@
         <v>113417</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>51945</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1132,7 @@
         <v>156361</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>103766</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>54090</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1277,7 @@
         <v>58073</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +1306,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1335,7 @@
         <v>82677</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1364,7 @@
         <v>55748</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1393,7 @@
         <v>36097</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>55941</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>81787</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>39650</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1520,7 +1538,7 @@
         <v>30920</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>9891</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +1596,7 @@
         <v>7826</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>56817</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1654,7 @@
         <v>79289</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>47296</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>68995</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>145587</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>76483</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1799,7 @@
         <v>109889</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>9027</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>7521</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>121412</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>47831</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1926,7 +1944,7 @@
         <v>48798</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>69273</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1984,7 +2002,7 @@
         <v>40975</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2013,7 +2031,7 @@
         <v>68782</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>96184</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2071,7 +2089,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2100,7 +2118,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>30225</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2158,7 +2176,7 @@
         <v>75955</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>41328</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>262134</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2245,7 +2263,7 @@
         <v>82096</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>9267</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +2350,7 @@
         <v>66570</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2361,7 +2379,7 @@
         <v>24070</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2390,7 +2408,7 @@
         <v>54464</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2418,6 +2436,382 @@
       <c r="I51">
         <v>97203</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="25">
+        <v>36161</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>3121.5468319920351</v>
+      </c>
+      <c r="J4" s="29">
+        <v>40853</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>36526</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I5" s="24">
+        <v>-1624.4125246305759</v>
+      </c>
+      <c r="J5" s="29">
+        <v>40853.041666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="28">
+        <v>3</v>
+      </c>
+      <c r="E6" s="28">
+        <v>2002</v>
+      </c>
+      <c r="F6" s="25">
+        <v>36892</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="I6" s="24">
+        <v>-3037.6986982328153</v>
+      </c>
+      <c r="J6" s="29">
+        <v>40853.083333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="28">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2003</v>
+      </c>
+      <c r="F7" s="25">
+        <v>37257</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="I7" s="24">
+        <v>4421.4613537295108</v>
+      </c>
+      <c r="J7" s="29">
+        <v>40853.125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="28">
+        <v>5</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2004</v>
+      </c>
+      <c r="F8" s="25">
+        <v>37622</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="I8" s="24">
+        <v>5907.2342279766544</v>
+      </c>
+      <c r="J8" s="29">
+        <v>40853.166666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="28">
+        <v>6</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2005</v>
+      </c>
+      <c r="F9" s="25">
+        <v>37987</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="I9" s="24">
+        <v>14338.644991521463</v>
+      </c>
+      <c r="J9" s="29">
+        <v>40853.208333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="28">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2006</v>
+      </c>
+      <c r="F10" s="25">
+        <v>38353</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="I10" s="24">
+        <v>12782.030353787637</v>
+      </c>
+      <c r="J10" s="29">
+        <v>40853.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="28">
+        <v>8</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2007</v>
+      </c>
+      <c r="F11" s="25">
+        <v>38718</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="24">
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="I11" s="24">
+        <v>-11000.620182831051</v>
+      </c>
+      <c r="J11" s="29">
+        <v>40853.291666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="28">
+        <v>9</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="25">
+        <v>39083</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="24">
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="I12" s="24">
+        <v>-10842.879724285254</v>
+      </c>
+      <c r="J12" s="29">
+        <v>40853.333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="28">
+        <v>10</v>
+      </c>
+      <c r="E13" s="28">
+        <v>2009</v>
+      </c>
+      <c r="F13" s="25">
+        <v>39448</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="I13" s="24">
+        <v>16340.029557637967</v>
+      </c>
+      <c r="J13" s="29">
+        <v>40853.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2425,21 +2819,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2459,7 +2853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39814</v>
       </c>
@@ -2479,7 +2873,7 @@
         <v>39814.042372685188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39845</v>
       </c>
@@ -2499,7 +2893,7 @@
         <v>39845.084745370368</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39873</v>
       </c>
@@ -2520,7 +2914,7 @@
         <v>39873.127117939817</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39904</v>
       </c>
@@ -2541,7 +2935,7 @@
         <v>39904.169490567132</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39934</v>
       </c>
@@ -2562,7 +2956,7 @@
         <v>39934.211863194447</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39965</v>
       </c>
@@ -2583,7 +2977,7 @@
         <v>39965.254235821762</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39995</v>
       </c>
@@ -2604,7 +2998,7 @@
         <v>39995.296608449076</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40026</v>
       </c>
@@ -2625,7 +3019,7 @@
         <v>40026.338981076391</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40057</v>
       </c>
@@ -2646,7 +3040,7 @@
         <v>40057.381353703706</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40087</v>
       </c>
@@ -2667,7 +3061,7 @@
         <v>40087.423726331021</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40118</v>
       </c>
@@ -2688,7 +3082,7 @@
         <v>40118.466098958335</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40148</v>
       </c>
@@ -2716,16 +3110,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2739,12 +3133,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2752,7 +3146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -2760,7 +3154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -2768,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>11</v>
       </c>
@@ -2779,35 +3173,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="6" customWidth="1"/>
     <col min="2" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
@@ -2821,7 +3215,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2837,7 +3231,7 @@
         <v>484152</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1">
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6"/>
       <c r="E6"/>
@@ -2847,29 +3241,29 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1">
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="10" t="s">
         <v>89</v>
@@ -2904,7 +3298,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>98</v>
       </c>
@@ -2936,7 +3330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2948,7 +3342,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
         <v>100</v>
@@ -2978,7 +3372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>40179</v>
       </c>
@@ -3018,7 +3412,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>40210</v>
       </c>
@@ -3058,7 +3452,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>40238</v>
       </c>
@@ -3098,7 +3492,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>40269</v>
       </c>
@@ -3138,7 +3532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>40299</v>
       </c>
@@ -3178,7 +3572,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>40330</v>
       </c>
@@ -3218,7 +3612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>40360</v>
       </c>
@@ -3258,7 +3652,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>40391</v>
       </c>
@@ -3298,7 +3692,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>40422</v>
       </c>
@@ -3338,7 +3732,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>40452</v>
       </c>
@@ -3378,7 +3772,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>40483</v>
       </c>
@@ -3418,7 +3812,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>40513</v>
       </c>
@@ -3458,7 +3852,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>40544</v>
       </c>
@@ -3498,7 +3892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>40575</v>
       </c>
@@ -3538,7 +3932,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>40603</v>
       </c>
@@ -3578,7 +3972,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>40634</v>
       </c>
@@ -3618,7 +4012,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>40664</v>
       </c>
@@ -3658,7 +4052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>40695</v>
       </c>
@@ -3698,7 +4092,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>40725</v>
       </c>
@@ -3738,7 +4132,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>40756</v>
       </c>
@@ -3778,7 +4172,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>40787</v>
       </c>
@@ -3818,7 +4212,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>40817</v>
       </c>
@@ -3858,7 +4252,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>40848</v>
       </c>
@@ -3898,7 +4292,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>40878</v>
       </c>
@@ -3948,46 +4342,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3998,26 +4392,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>3</v>
       </c>
@@ -4025,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>5</v>
       </c>
@@ -4037,16 +4431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -4057,7 +4451,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -4069,7 +4463,7 @@
         <v>2010-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -4081,7 +4475,7 @@
         <v>2010-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -4099,20 +4493,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -4132,7 +4526,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39814</v>
       </c>
@@ -4152,7 +4546,7 @@
         <v>39814.042372685188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39845</v>
       </c>
@@ -4172,7 +4566,7 @@
         <v>39845.084745370368</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39873</v>
       </c>
@@ -4193,7 +4587,7 @@
         <v>39873.127117939817</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39904</v>
       </c>
@@ -4214,7 +4608,7 @@
         <v>39904.169490567132</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39934</v>
       </c>
@@ -4235,7 +4629,7 @@
         <v>39934.211863194447</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="e">
         <v>#N/A</v>
       </c>
@@ -4256,7 +4650,7 @@
         <v>39965.254235821762</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39995</v>
       </c>
@@ -4277,7 +4671,7 @@
         <v>39995.296608449076</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40026</v>
       </c>
@@ -4298,7 +4692,7 @@
         <v>40026.338981076391</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40057</v>
       </c>
@@ -4319,7 +4713,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40087</v>
       </c>
@@ -4340,7 +4734,7 @@
         <v>40087.423726331021</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40118</v>
       </c>
@@ -4360,7 +4754,7 @@
         <v>40118.466098958335</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40148</v>
       </c>
@@ -4387,52 +4781,52 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10">
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>2000</v>
       </c>
       <c r="F4" s="1">
@@ -4447,21 +4841,21 @@
       <c r="I4">
         <v>3121.5468319920351</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <v>40853</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>2001</v>
       </c>
       <c r="F5" s="1">
@@ -4476,21 +4870,21 @@
       <c r="I5">
         <v>-1624.4125246305759</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>40853.041666666664</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>2002</v>
       </c>
       <c r="F6" s="1">
@@ -4505,21 +4899,21 @@
       <c r="I6">
         <v>-3037.6986982328153</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>40853.083333333336</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>4</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>2003</v>
       </c>
       <c r="F7" s="1">
@@ -4534,21 +4928,21 @@
       <c r="I7">
         <v>4421.4613537295108</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>40853.125</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>5</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>2004</v>
       </c>
       <c r="F8" s="1">
@@ -4563,21 +4957,21 @@
       <c r="I8">
         <v>5907.2342279766544</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>40853.166666666664</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>6</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>2005</v>
       </c>
       <c r="F9" s="1">
@@ -4592,21 +4986,21 @@
       <c r="I9">
         <v>14338.644991521463</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>40853.208333333336</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>7</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>2006</v>
       </c>
       <c r="F10" s="1">
@@ -4621,21 +5015,21 @@
       <c r="I10">
         <v>12782.030353787637</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>40853.25</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>8</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>2007</v>
       </c>
       <c r="F11" s="1">
@@ -4650,21 +5044,21 @@
       <c r="I11">
         <v>-11000.620182831051</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>40853.291666666664</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>9</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>2008</v>
       </c>
       <c r="F12" s="1">
@@ -4679,21 +5073,21 @@
       <c r="I12">
         <v>-10842.879724285254</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <v>40853.333333333336</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>10</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>2009</v>
       </c>
       <c r="F13" s="1">
@@ -4708,7 +5102,7 @@
       <c r="I13">
         <v>16340.029557637967</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <v>40853.375</v>
       </c>
     </row>
